--- a/service/Resources/base-mide.xlsx
+++ b/service/Resources/base-mide.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\edu-mide\service\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONTENIDOS\Desktop\proyectos\mide\edu-mide\service\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="443">
   <si>
     <t>UNIVERSIDAD</t>
   </si>
@@ -595,9 +595,6 @@
     <t>UNIVERSIDAD AUTONOMA DEL CARIBE- UNIAUTONOMA</t>
   </si>
   <si>
-    <t>DIRECCION NACIONAL DE ESCUELAS</t>
-  </si>
-  <si>
     <t>CORPORACION UNIVERSITARIA DE COLOMBIA IDEAS</t>
   </si>
   <si>
@@ -799,27 +796,6 @@
     <t>UNIDADES TECNOLOGICAS DE SANTANDER</t>
   </si>
   <si>
-    <t>CENTRO DE EDUCACION MILITAR - CEMIL</t>
-  </si>
-  <si>
-    <t>ESCUELA DE INTELIGENCIA Y CONTRAINTELIGENCIA BRIGADIER GENERAL RICARDO CHARRY SOLANO</t>
-  </si>
-  <si>
-    <t>ESCUELA  MILITAR DE SUBOFICIALES SARGENTO INOCENCIO CHINCA</t>
-  </si>
-  <si>
-    <t>ESCUELA DE COMUNICACIONES</t>
-  </si>
-  <si>
-    <t>ESCUELA DE FORMACION DE INFANTERIA DE MARINA</t>
-  </si>
-  <si>
-    <t>ESCUELA DE SUBOFICIALES DE LA FUERZA AEREA COLOMBIANA ANDRES M. DIAZ</t>
-  </si>
-  <si>
-    <t>ESCUELA NAVAL DE SUBOFICIALES ARC BARRANQUILLA</t>
-  </si>
-  <si>
     <t>AñoU</t>
   </si>
   <si>
@@ -1358,6 +1334,21 @@
   </si>
   <si>
     <t>9899</t>
+  </si>
+  <si>
+    <t>CORPORACION UNIFICADA NACIONAL DE EDUCACION SUPERIOR-CUN-</t>
+  </si>
+  <si>
+    <t>CORPORACION UNIVERSITARIA UNITEC</t>
+  </si>
+  <si>
+    <t>INSTITUCION UNIVERSITARIA SALAZAR Y HERRERA</t>
+  </si>
+  <si>
+    <t>INSTITUCION UNIVERSITARIA PASCUAL BRAVO</t>
+  </si>
+  <si>
+    <t>CORPORACION TECNOLOGICA DE BOGOTA - CTB -</t>
   </si>
 </sst>
 </file>
@@ -1398,12 +1389,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1412,7 +1418,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1423,6 +1429,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1729,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K663"/>
+  <dimension ref="A1:K664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" workbookViewId="0">
-      <selection activeCell="I502" sqref="I502"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D646" sqref="D646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,10 +1786,10 @@
         <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -12015,7 +12024,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B332" s="5" t="s">
         <v>4</v>
@@ -12040,7 +12049,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B333" s="5" t="s">
         <v>56</v>
@@ -12065,7 +12074,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B334" s="5" t="s">
         <v>46</v>
@@ -12090,7 +12099,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B335" s="5" t="s">
         <v>42</v>
@@ -12115,7 +12124,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>31</v>
@@ -12140,7 +12149,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>35</v>
@@ -12165,7 +12174,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B338" s="5" t="s">
         <v>101</v>
@@ -12190,7 +12199,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B339" s="5" t="s">
         <v>88</v>
@@ -12215,7 +12224,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B340" s="5" t="s">
         <v>109</v>
@@ -12240,7 +12249,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B341" s="5" t="s">
         <v>36</v>
@@ -12265,7 +12274,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B342" s="5" t="s">
         <v>116</v>
@@ -12290,7 +12299,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B343" s="5" t="s">
         <v>96</v>
@@ -12315,7 +12324,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B344" s="5" t="s">
         <v>113</v>
@@ -12340,7 +12349,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B345" s="5" t="s">
         <v>73</v>
@@ -12365,7 +12374,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B346" s="5" t="s">
         <v>85</v>
@@ -12390,7 +12399,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>20</v>
@@ -12415,7 +12424,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B348" s="5" t="s">
         <v>92</v>
@@ -12440,7 +12449,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B349" s="5" t="s">
         <v>19</v>
@@ -12465,7 +12474,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B350" s="5" t="s">
         <v>24</v>
@@ -12490,7 +12499,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B351" s="5" t="s">
         <v>89</v>
@@ -12515,7 +12524,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B352" s="5" t="s">
         <v>86</v>
@@ -12540,7 +12549,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B353" s="5" t="s">
         <v>5</v>
@@ -12565,7 +12574,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B354" s="5" t="s">
         <v>95</v>
@@ -12590,7 +12599,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B355" s="5" t="s">
         <v>105</v>
@@ -12615,7 +12624,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B356" s="5" t="s">
         <v>106</v>
@@ -12640,7 +12649,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B357" s="5" t="s">
         <v>99</v>
@@ -12665,7 +12674,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B358" s="5" t="s">
         <v>104</v>
@@ -12690,7 +12699,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B359" s="5" t="s">
         <v>102</v>
@@ -12715,7 +12724,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B360" s="5" t="s">
         <v>115</v>
@@ -12740,7 +12749,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B361" s="5" t="s">
         <v>32</v>
@@ -12765,7 +12774,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B362" s="5" t="s">
         <v>7</v>
@@ -12790,7 +12799,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B363" s="5" t="s">
         <v>111</v>
@@ -12815,7 +12824,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B364" s="5" t="s">
         <v>47</v>
@@ -12840,7 +12849,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B365" s="5" t="s">
         <v>30</v>
@@ -12865,7 +12874,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B366" s="5" t="s">
         <v>90</v>
@@ -12890,7 +12899,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B367" s="5" t="s">
         <v>93</v>
@@ -12915,7 +12924,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B368" s="5" t="s">
         <v>21</v>
@@ -12940,7 +12949,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B369" s="5" t="s">
         <v>28</v>
@@ -12965,7 +12974,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B370" s="5" t="s">
         <v>22</v>
@@ -12990,7 +12999,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B371" s="5" t="s">
         <v>6</v>
@@ -13015,7 +13024,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B372" s="5" t="s">
         <v>25</v>
@@ -13040,7 +13049,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B373" s="5" t="s">
         <v>71</v>
@@ -13065,7 +13074,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B374" s="5" t="s">
         <v>45</v>
@@ -13090,7 +13099,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B375" s="5" t="s">
         <v>75</v>
@@ -13115,7 +13124,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B376" s="5" t="s">
         <v>51</v>
@@ -13140,7 +13149,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B377" s="5" t="s">
         <v>34</v>
@@ -13165,7 +13174,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B378" s="5" t="s">
         <v>81</v>
@@ -13190,7 +13199,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B379" s="5" t="s">
         <v>103</v>
@@ -13215,7 +13224,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B380" s="5" t="s">
         <v>44</v>
@@ -13240,7 +13249,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B381" s="5" t="s">
         <v>41</v>
@@ -13265,7 +13274,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B382" s="5" t="s">
         <v>100</v>
@@ -13290,7 +13299,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B383" s="5" t="s">
         <v>94</v>
@@ -13315,7 +13324,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B384" s="5" t="s">
         <v>79</v>
@@ -13340,7 +13349,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B385" s="5" t="s">
         <v>33</v>
@@ -13365,7 +13374,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B386" s="5" t="s">
         <v>83</v>
@@ -13390,7 +13399,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B387" s="5" t="s">
         <v>110</v>
@@ -13415,7 +13424,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B388" s="5" t="s">
         <v>48</v>
@@ -13440,7 +13449,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B389" s="5" t="s">
         <v>9</v>
@@ -13465,7 +13474,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B390" s="5" t="s">
         <v>18</v>
@@ -13490,7 +13499,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B391" s="5" t="s">
         <v>77</v>
@@ -13515,7 +13524,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B392" s="5" t="s">
         <v>80</v>
@@ -13540,7 +13549,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B393" s="5" t="s">
         <v>52</v>
@@ -13565,7 +13574,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B394" s="5" t="s">
         <v>37</v>
@@ -13590,7 +13599,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B395" s="5" t="s">
         <v>84</v>
@@ -13615,7 +13624,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B396" s="5" t="s">
         <v>43</v>
@@ -13640,7 +13649,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B397" s="5" t="s">
         <v>98</v>
@@ -13665,7 +13674,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B398" s="5" t="s">
         <v>49</v>
@@ -13690,7 +13699,7 @@
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B399" s="5" t="s">
         <v>26</v>
@@ -13715,7 +13724,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B400" s="5" t="s">
         <v>76</v>
@@ -13740,7 +13749,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B401" s="5" t="s">
         <v>82</v>
@@ -13765,7 +13774,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>74</v>
@@ -13790,7 +13799,7 @@
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B403" s="5" t="s">
         <v>112</v>
@@ -13815,7 +13824,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B404" s="5" t="s">
         <v>97</v>
@@ -13840,7 +13849,7 @@
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B405" s="5" t="s">
         <v>114</v>
@@ -13865,7 +13874,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B406" s="5" t="s">
         <v>66</v>
@@ -13890,7 +13899,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B407" s="5" t="s">
         <v>125</v>
@@ -13915,7 +13924,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B408" s="5" t="s">
         <v>144</v>
@@ -13940,7 +13949,7 @@
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B409" s="5" t="s">
         <v>136</v>
@@ -13965,7 +13974,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B410" s="5" t="s">
         <v>182</v>
@@ -13990,7 +13999,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B411" s="5" t="s">
         <v>150</v>
@@ -14015,7 +14024,7 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B412" s="5" t="s">
         <v>127</v>
@@ -14040,7 +14049,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B413" s="5" t="s">
         <v>69</v>
@@ -14065,7 +14074,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B414" s="5" t="s">
         <v>173</v>
@@ -14090,7 +14099,7 @@
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B415" s="5" t="s">
         <v>140</v>
@@ -14115,7 +14124,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B416" s="5" t="s">
         <v>141</v>
@@ -14140,7 +14149,7 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B417" s="5" t="s">
         <v>39</v>
@@ -14165,7 +14174,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B418" s="5" t="s">
         <v>58</v>
@@ -14190,7 +14199,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B419" s="5" t="s">
         <v>121</v>
@@ -14215,7 +14224,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B420" s="5" t="s">
         <v>27</v>
@@ -14240,7 +14249,7 @@
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B421" s="5" t="s">
         <v>177</v>
@@ -14265,7 +14274,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B422" s="5" t="s">
         <v>129</v>
@@ -14290,7 +14299,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B423" s="5" t="s">
         <v>91</v>
@@ -14315,7 +14324,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B424" s="5" t="s">
         <v>120</v>
@@ -14340,7 +14349,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B425" s="5" t="s">
         <v>170</v>
@@ -14365,7 +14374,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B426" s="5" t="s">
         <v>152</v>
@@ -14390,7 +14399,7 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B427" s="5" t="s">
         <v>167</v>
@@ -14415,7 +14424,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B428" s="5" t="s">
         <v>171</v>
@@ -14440,7 +14449,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B429" s="5" t="s">
         <v>134</v>
@@ -14465,7 +14474,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B430" s="5" t="s">
         <v>124</v>
@@ -14490,7 +14499,7 @@
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B431" s="5" t="s">
         <v>176</v>
@@ -14515,7 +14524,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B432" s="5" t="s">
         <v>175</v>
@@ -14540,7 +14549,7 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B433" s="5" t="s">
         <v>65</v>
@@ -14565,7 +14574,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B434" s="5" t="s">
         <v>181</v>
@@ -14590,7 +14599,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B435" s="5" t="s">
         <v>63</v>
@@ -14615,7 +14624,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B436" s="5" t="s">
         <v>146</v>
@@ -14640,7 +14649,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B437" s="5" t="s">
         <v>179</v>
@@ -14665,7 +14674,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B438" s="5" t="s">
         <v>161</v>
@@ -14690,7 +14699,7 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B439" s="5" t="s">
         <v>57</v>
@@ -14715,7 +14724,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B440" s="5" t="s">
         <v>123</v>
@@ -14740,7 +14749,7 @@
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B441" s="5" t="s">
         <v>59</v>
@@ -14765,7 +14774,7 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B442" s="5" t="s">
         <v>160</v>
@@ -14790,7 +14799,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B443" s="5" t="s">
         <v>178</v>
@@ -14815,7 +14824,7 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B444" s="5" t="s">
         <v>184</v>
@@ -14840,7 +14849,7 @@
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B445" s="5" t="s">
         <v>180</v>
@@ -14865,7 +14874,7 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B446" s="5" t="s">
         <v>119</v>
@@ -14890,7 +14899,7 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B447" s="5" t="s">
         <v>172</v>
@@ -14915,7 +14924,7 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B448" s="5" t="s">
         <v>64</v>
@@ -14940,7 +14949,7 @@
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B449" s="5" t="s">
         <v>131</v>
@@ -14965,7 +14974,7 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B450" s="5" t="s">
         <v>50</v>
@@ -14990,7 +14999,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B451" s="5" t="s">
         <v>78</v>
@@ -15015,7 +15024,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B452" s="5" t="s">
         <v>117</v>
@@ -15040,7 +15049,7 @@
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B453" s="5" t="s">
         <v>38</v>
@@ -15065,7 +15074,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B454" s="5" t="s">
         <v>54</v>
@@ -15090,7 +15099,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B455" s="5" t="s">
         <v>126</v>
@@ -15115,7 +15124,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B456" s="5" t="s">
         <v>133</v>
@@ -15140,7 +15149,7 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B457" s="5" t="s">
         <v>169</v>
@@ -15165,7 +15174,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B458" s="5" t="s">
         <v>156</v>
@@ -15190,10 +15199,10 @@
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C459" s="5" t="s">
         <v>1</v>
@@ -15215,7 +15224,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B460" s="5" t="s">
         <v>185</v>
@@ -15240,7 +15249,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B461" s="5" t="s">
         <v>139</v>
@@ -15265,7 +15274,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B462" s="5" t="s">
         <v>157</v>
@@ -15290,7 +15299,7 @@
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B463" s="5" t="s">
         <v>53</v>
@@ -15315,7 +15324,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B464" s="5" t="s">
         <v>142</v>
@@ -15340,7 +15349,7 @@
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B465" s="5" t="s">
         <v>153</v>
@@ -15365,7 +15374,7 @@
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B466" s="5" t="s">
         <v>108</v>
@@ -15390,7 +15399,7 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B467" s="5" t="s">
         <v>183</v>
@@ -15415,7 +15424,7 @@
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B468" s="5" t="s">
         <v>154</v>
@@ -15440,7 +15449,7 @@
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B469" s="5" t="s">
         <v>68</v>
@@ -15465,7 +15474,7 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B470" s="5" t="s">
         <v>135</v>
@@ -15490,7 +15499,7 @@
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B471" s="5" t="s">
         <v>132</v>
@@ -15515,7 +15524,7 @@
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B472" s="5" t="s">
         <v>130</v>
@@ -15540,7 +15549,7 @@
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B473" s="5" t="s">
         <v>164</v>
@@ -15565,7 +15574,7 @@
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B474" s="5" t="s">
         <v>143</v>
@@ -15590,10 +15599,10 @@
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C475" s="5" t="s">
         <v>1</v>
@@ -15615,7 +15624,7 @@
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B476" s="5" t="s">
         <v>155</v>
@@ -15640,7 +15649,7 @@
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B477" s="5" t="s">
         <v>162</v>
@@ -15665,7 +15674,7 @@
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B478" s="5" t="s">
         <v>149</v>
@@ -15690,7 +15699,7 @@
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B479" s="5" t="s">
         <v>62</v>
@@ -15715,10 +15724,10 @@
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>2</v>
@@ -15740,7 +15749,7 @@
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B481" s="5" t="s">
         <v>138</v>
@@ -15765,7 +15774,7 @@
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B482" s="5" t="s">
         <v>174</v>
@@ -15790,7 +15799,7 @@
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B483" s="5" t="s">
         <v>122</v>
@@ -15815,10 +15824,10 @@
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C484" s="5" t="s">
         <v>1</v>
@@ -15840,7 +15849,7 @@
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B485" s="5" t="s">
         <v>151</v>
@@ -15865,7 +15874,7 @@
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B486" s="5" t="s">
         <v>147</v>
@@ -15890,7 +15899,7 @@
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B487" s="5" t="s">
         <v>158</v>
@@ -15915,7 +15924,7 @@
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B488" s="5" t="s">
         <v>60</v>
@@ -15940,7 +15949,7 @@
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B489" s="5" t="s">
         <v>128</v>
@@ -15965,7 +15974,7 @@
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B490" s="5" t="s">
         <v>165</v>
@@ -15990,7 +15999,7 @@
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B491" s="5" t="s">
         <v>148</v>
@@ -16015,7 +16024,7 @@
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B492" s="5" t="s">
         <v>137</v>
@@ -16040,10 +16049,10 @@
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>1</v>
@@ -16065,7 +16074,7 @@
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B494" s="5" t="s">
         <v>67</v>
@@ -16090,7 +16099,7 @@
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B495" s="5" t="s">
         <v>166</v>
@@ -16115,7 +16124,7 @@
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B496" s="5" t="s">
         <v>145</v>
@@ -16140,7 +16149,7 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B497" s="5" t="s">
         <v>70</v>
@@ -16165,7 +16174,7 @@
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B498" s="5" t="s">
         <v>107</v>
@@ -16190,7 +16199,7 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B499" s="5" t="s">
         <v>163</v>
@@ -16215,7 +16224,7 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B500" s="5" t="s">
         <v>159</v>
@@ -16240,7 +16249,7 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B501" s="5" t="s">
         <v>61</v>
@@ -16265,10 +16274,10 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C502" s="5" t="s">
         <v>1</v>
@@ -16290,10 +16299,10 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>1</v>
@@ -16315,10 +16324,10 @@
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C504" s="5" t="s">
         <v>1</v>
@@ -16340,10 +16349,10 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C505" s="5" t="s">
         <v>1</v>
@@ -16365,10 +16374,10 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>1</v>
@@ -16393,19 +16402,17 @@
         <v>4112</v>
       </c>
       <c r="B507" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C507" t="s">
         <v>2</v>
       </c>
       <c r="D507" t="s">
-        <v>203</v>
-      </c>
-      <c r="E507" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E507" s="3"/>
       <c r="H507" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K507">
         <v>2017</v>
@@ -16413,22 +16420,20 @@
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="4">
-        <v>2110</v>
+        <v>4806</v>
       </c>
       <c r="B508" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="C508" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D508" t="s">
-        <v>204</v>
-      </c>
-      <c r="E508" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E508" s="3"/>
       <c r="H508" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="K508">
         <v>2017</v>
@@ -16436,22 +16441,20 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="4">
-        <v>3103</v>
+        <v>4812</v>
       </c>
       <c r="B509" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C509" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D509" t="s">
-        <v>206</v>
-      </c>
-      <c r="E509" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E509" s="3"/>
       <c r="H509" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K509">
         <v>2017</v>
@@ -16459,22 +16462,20 @@
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="4">
-        <v>3104</v>
+        <v>4817</v>
       </c>
       <c r="B510" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="C510" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D510" t="s">
-        <v>204</v>
-      </c>
-      <c r="E510" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E510" s="3"/>
       <c r="H510" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="K510">
         <v>2017</v>
@@ -16482,22 +16483,20 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="4">
-        <v>4801</v>
+        <v>5801</v>
       </c>
       <c r="B511" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C511" t="s">
         <v>1</v>
       </c>
       <c r="D511" t="s">
-        <v>206</v>
-      </c>
-      <c r="E511" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E511" s="3"/>
       <c r="H511" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K511">
         <v>2017</v>
@@ -16505,22 +16504,20 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="4">
-        <v>3820</v>
+        <v>4825</v>
       </c>
       <c r="B512" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C512" t="s">
         <v>1</v>
       </c>
       <c r="D512" t="s">
-        <v>206</v>
-      </c>
-      <c r="E512" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E512" s="3"/>
       <c r="H512" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K512">
         <v>2017</v>
@@ -16528,22 +16525,20 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="4">
-        <v>4806</v>
+        <v>4829</v>
       </c>
       <c r="B513" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C513" t="s">
         <v>1</v>
       </c>
       <c r="D513" t="s">
-        <v>203</v>
-      </c>
-      <c r="E513" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E513" s="3"/>
       <c r="H513" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K513">
         <v>2017</v>
@@ -16551,22 +16546,20 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="4">
-        <v>4812</v>
+        <v>4803</v>
       </c>
       <c r="B514" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C514" t="s">
         <v>1</v>
       </c>
       <c r="D514" t="s">
-        <v>203</v>
-      </c>
-      <c r="E514" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E514" s="3"/>
       <c r="H514" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K514">
         <v>2017</v>
@@ -16574,22 +16567,20 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="4">
-        <v>3811</v>
+        <v>4813</v>
       </c>
       <c r="B515" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
       <c r="C515" t="s">
         <v>1</v>
       </c>
       <c r="D515" t="s">
-        <v>206</v>
-      </c>
-      <c r="E515" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E515" s="3"/>
       <c r="H515" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K515">
         <v>2017</v>
@@ -16597,22 +16588,20 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="4">
-        <v>3801</v>
+        <v>4835</v>
       </c>
       <c r="B516" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C516" t="s">
         <v>1</v>
       </c>
       <c r="D516" t="s">
-        <v>206</v>
-      </c>
-      <c r="E516" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E516" s="3"/>
       <c r="H516" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K516">
         <v>2017</v>
@@ -16620,22 +16609,20 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="4">
-        <v>4817</v>
+        <v>3303</v>
       </c>
       <c r="B517" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C517" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D517" t="s">
-        <v>203</v>
-      </c>
-      <c r="E517" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E517" s="3"/>
       <c r="H517" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K517">
         <v>2017</v>
@@ -16643,22 +16630,20 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="4">
-        <v>3810</v>
+        <v>4701</v>
       </c>
       <c r="B518" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C518" t="s">
         <v>1</v>
       </c>
       <c r="D518" t="s">
-        <v>206</v>
-      </c>
-      <c r="E518" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E518" s="3"/>
       <c r="H518" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K518">
         <v>2017</v>
@@ -16666,22 +16651,20 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="4">
-        <v>4822</v>
+        <v>4719</v>
       </c>
       <c r="B519" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="C519" t="s">
         <v>1</v>
       </c>
       <c r="D519" t="s">
-        <v>204</v>
-      </c>
-      <c r="E519" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E519" s="3"/>
       <c r="H519" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="K519">
         <v>2017</v>
@@ -16689,22 +16672,20 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="4">
-        <v>3806</v>
+        <v>4708</v>
       </c>
       <c r="B520" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="C520" t="s">
         <v>1</v>
       </c>
       <c r="D520" t="s">
-        <v>206</v>
-      </c>
-      <c r="E520" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E520" s="3"/>
       <c r="H520" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K520">
         <v>2017</v>
@@ -16712,22 +16693,20 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="4">
-        <v>5801</v>
+        <v>4714</v>
       </c>
       <c r="B521" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="C521" t="s">
         <v>1</v>
       </c>
       <c r="D521" t="s">
-        <v>203</v>
-      </c>
-      <c r="E521" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E521" s="3"/>
       <c r="H521" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="K521">
         <v>2017</v>
@@ -16735,22 +16714,20 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="4">
-        <v>4825</v>
+        <v>4726</v>
       </c>
       <c r="B522" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C522" t="s">
         <v>1</v>
       </c>
       <c r="D522" t="s">
-        <v>203</v>
-      </c>
-      <c r="E522" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E522" s="3"/>
       <c r="H522" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K522">
         <v>2017</v>
@@ -16758,22 +16735,20 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="4">
-        <v>4829</v>
+        <v>9117</v>
       </c>
       <c r="B523" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C523" t="s">
         <v>1</v>
       </c>
       <c r="D523" t="s">
-        <v>203</v>
-      </c>
-      <c r="E523" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E523" s="3"/>
       <c r="H523" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K523">
         <v>2017</v>
@@ -16781,22 +16756,20 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="4">
-        <v>3826</v>
+        <v>4101</v>
       </c>
       <c r="B524" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C524" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D524" t="s">
-        <v>206</v>
-      </c>
-      <c r="E524" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E524" s="3"/>
       <c r="H524" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K524">
         <v>2017</v>
@@ -16804,22 +16777,20 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="4">
-        <v>4803</v>
+        <v>4111</v>
       </c>
       <c r="B525" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C525" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D525" t="s">
-        <v>203</v>
-      </c>
-      <c r="E525" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E525" s="3"/>
       <c r="H525" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K525">
         <v>2017</v>
@@ -16827,22 +16798,20 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="4">
-        <v>3834</v>
+        <v>4102</v>
       </c>
       <c r="B526" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C526" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D526" t="s">
-        <v>206</v>
-      </c>
-      <c r="E526" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E526" s="3"/>
       <c r="H526" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K526">
         <v>2017</v>
@@ -16850,22 +16819,20 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="4">
-        <v>9126</v>
+        <v>3809</v>
       </c>
       <c r="B527" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="C527" t="s">
         <v>1</v>
       </c>
       <c r="D527" t="s">
+        <v>202</v>
+      </c>
+      <c r="E527" s="3"/>
+      <c r="H527" t="s">
         <v>206</v>
-      </c>
-      <c r="E527" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H527" t="s">
-        <v>207</v>
       </c>
       <c r="K527">
         <v>2017</v>
@@ -16873,22 +16840,20 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="4">
-        <v>3819</v>
+        <v>4109</v>
       </c>
       <c r="B528" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="C528" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D528" t="s">
-        <v>206</v>
-      </c>
-      <c r="E528" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E528" s="3"/>
       <c r="H528" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K528">
         <v>2017</v>
@@ -16896,22 +16861,20 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="4">
-        <v>3830</v>
+        <v>4110</v>
       </c>
       <c r="B529" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="C529" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D529" t="s">
-        <v>206</v>
-      </c>
-      <c r="E529" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E529" s="3"/>
       <c r="H529" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="K529">
         <v>2017</v>
@@ -16919,22 +16882,20 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="4">
-        <v>2810</v>
+        <v>4727</v>
       </c>
       <c r="B530" t="s">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="C530" t="s">
         <v>1</v>
       </c>
       <c r="D530" t="s">
-        <v>226</v>
-      </c>
-      <c r="E530" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E530" s="3"/>
       <c r="H530" t="s">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="K530">
         <v>2017</v>
@@ -16942,22 +16903,20 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="4">
-        <v>2848</v>
+        <v>3103</v>
       </c>
       <c r="B531" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C531" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D531" t="s">
-        <v>204</v>
-      </c>
-      <c r="E531" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E531" s="3"/>
       <c r="H531" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K531">
         <v>2017</v>
@@ -16965,22 +16924,20 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="4">
-        <v>2815</v>
+        <v>4801</v>
       </c>
       <c r="B532" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="C532" t="s">
         <v>1</v>
       </c>
       <c r="D532" t="s">
-        <v>204</v>
-      </c>
-      <c r="E532" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E532" s="3"/>
       <c r="H532" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K532">
         <v>2017</v>
@@ -16988,22 +16945,20 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="4">
-        <v>9119</v>
+        <v>3820</v>
       </c>
       <c r="B533" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="C533" t="s">
         <v>1</v>
       </c>
       <c r="D533" t="s">
-        <v>204</v>
-      </c>
-      <c r="E533" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E533" s="3"/>
       <c r="H533" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K533">
         <v>2017</v>
@@ -17011,22 +16966,20 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="4">
-        <v>3817</v>
+        <v>3811</v>
       </c>
       <c r="B534" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="C534" t="s">
         <v>1</v>
       </c>
       <c r="D534" t="s">
-        <v>204</v>
-      </c>
-      <c r="E534" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E534" s="3"/>
       <c r="H534" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K534">
         <v>2017</v>
@@ -17034,22 +16987,20 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="4">
-        <v>4810</v>
+        <v>3801</v>
       </c>
       <c r="B535" t="s">
-        <v>67</v>
+        <v>212</v>
       </c>
       <c r="C535" t="s">
         <v>1</v>
       </c>
       <c r="D535" t="s">
-        <v>204</v>
-      </c>
-      <c r="E535" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E535" s="3"/>
       <c r="H535" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K535">
         <v>2017</v>
@@ -17057,22 +17008,20 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="4">
-        <v>3803</v>
+        <v>3810</v>
       </c>
       <c r="B536" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="C536" t="s">
         <v>1</v>
       </c>
       <c r="D536" t="s">
-        <v>204</v>
-      </c>
-      <c r="E536" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E536" s="3"/>
       <c r="H536" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K536">
         <v>2017</v>
@@ -17080,22 +17029,20 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="4">
-        <v>3831</v>
+        <v>3806</v>
       </c>
       <c r="B537" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="C537" t="s">
         <v>1</v>
       </c>
       <c r="D537" t="s">
-        <v>204</v>
-      </c>
-      <c r="E537" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E537" s="3"/>
       <c r="H537" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K537">
         <v>2017</v>
@@ -17103,22 +17050,20 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="4">
-        <v>4837</v>
+        <v>3826</v>
       </c>
       <c r="B538" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="C538" t="s">
         <v>1</v>
       </c>
       <c r="D538" t="s">
-        <v>204</v>
-      </c>
-      <c r="E538" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E538" s="3"/>
       <c r="H538" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K538">
         <v>2017</v>
@@ -17126,22 +17071,20 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="4">
-        <v>2847</v>
+        <v>3834</v>
       </c>
       <c r="B539" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="C539" t="s">
         <v>1</v>
       </c>
       <c r="D539" t="s">
-        <v>204</v>
-      </c>
-      <c r="E539" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E539" s="3"/>
       <c r="H539" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K539">
         <v>2017</v>
@@ -17149,22 +17092,20 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="4">
-        <v>2818</v>
+        <v>3808</v>
       </c>
       <c r="B540" t="s">
-        <v>133</v>
+        <v>442</v>
       </c>
       <c r="C540" t="s">
         <v>1</v>
       </c>
       <c r="D540" t="s">
-        <v>204</v>
-      </c>
-      <c r="E540" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E540" s="3"/>
       <c r="H540" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K540">
         <v>2017</v>
@@ -17172,22 +17113,20 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="4">
-        <v>2830</v>
+        <v>9126</v>
       </c>
       <c r="B541" t="s">
-        <v>142</v>
+        <v>222</v>
       </c>
       <c r="C541" t="s">
         <v>1</v>
       </c>
       <c r="D541" t="s">
-        <v>204</v>
-      </c>
-      <c r="E541" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E541" s="3"/>
       <c r="H541" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K541">
         <v>2017</v>
@@ -17195,22 +17134,20 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="4">
-        <v>4818</v>
+        <v>3819</v>
       </c>
       <c r="B542" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="C542" t="s">
         <v>1</v>
       </c>
       <c r="D542" t="s">
-        <v>204</v>
-      </c>
-      <c r="E542" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E542" s="3"/>
       <c r="H542" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K542">
         <v>2017</v>
@@ -17218,22 +17155,20 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="4">
-        <v>2829</v>
+        <v>3830</v>
       </c>
       <c r="B543" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="C543" t="s">
         <v>1</v>
       </c>
       <c r="D543" t="s">
-        <v>204</v>
-      </c>
-      <c r="E543" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E543" s="3"/>
       <c r="H543" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K543">
         <v>2017</v>
@@ -17241,22 +17176,20 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="4">
-        <v>2825</v>
+        <v>3807</v>
       </c>
       <c r="B544" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="C544" t="s">
         <v>1</v>
       </c>
       <c r="D544" t="s">
-        <v>204</v>
-      </c>
-      <c r="E544" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E544" s="3"/>
       <c r="H544" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K544">
         <v>2017</v>
@@ -17264,22 +17197,20 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="4">
-        <v>2833</v>
+        <v>3824</v>
       </c>
       <c r="B545" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="C545" t="s">
         <v>1</v>
       </c>
       <c r="D545" t="s">
-        <v>204</v>
-      </c>
-      <c r="E545" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E545" s="3"/>
       <c r="H545" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K545">
         <v>2017</v>
@@ -17287,22 +17218,20 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="4">
-        <v>4835</v>
+        <v>3712</v>
       </c>
       <c r="B546" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C546" t="s">
         <v>1</v>
       </c>
       <c r="D546" t="s">
-        <v>203</v>
-      </c>
-      <c r="E546" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E546" s="3"/>
       <c r="H546" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K546">
         <v>2017</v>
@@ -17310,22 +17239,20 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="4">
-        <v>3807</v>
+        <v>3718</v>
       </c>
       <c r="B547" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C547" t="s">
         <v>1</v>
       </c>
       <c r="D547" t="s">
+        <v>205</v>
+      </c>
+      <c r="E547" s="3"/>
+      <c r="H547" t="s">
         <v>206</v>
-      </c>
-      <c r="E547" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H547" t="s">
-        <v>207</v>
       </c>
       <c r="K547">
         <v>2017</v>
@@ -17333,22 +17260,20 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="4">
-        <v>2114</v>
+        <v>3725</v>
       </c>
       <c r="B548" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="C548" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D548" t="s">
-        <v>204</v>
-      </c>
-      <c r="E548" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E548" s="3"/>
       <c r="H548" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K548">
         <v>2017</v>
@@ -17356,22 +17281,20 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="4">
-        <v>3824</v>
+        <v>3710</v>
       </c>
       <c r="B549" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C549" t="s">
         <v>1</v>
       </c>
       <c r="D549" t="s">
+        <v>205</v>
+      </c>
+      <c r="E549" s="3"/>
+      <c r="H549" t="s">
         <v>206</v>
-      </c>
-      <c r="E549" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H549" t="s">
-        <v>207</v>
       </c>
       <c r="K549">
         <v>2017</v>
@@ -17379,22 +17302,20 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="4">
-        <v>3303</v>
+        <v>3702</v>
       </c>
       <c r="B550" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C550" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D550" t="s">
-        <v>203</v>
-      </c>
-      <c r="E550" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E550" s="3"/>
       <c r="H550" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K550">
         <v>2017</v>
@@ -17402,22 +17323,20 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="4">
-        <v>4108</v>
+        <v>3715</v>
       </c>
       <c r="B551" t="s">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="C551" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D551" t="s">
-        <v>204</v>
-      </c>
-      <c r="E551" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E551" s="3"/>
       <c r="H551" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K551">
         <v>2017</v>
@@ -17425,22 +17344,20 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="4">
-        <v>4701</v>
+        <v>9904</v>
       </c>
       <c r="B552" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C552" t="s">
         <v>1</v>
       </c>
       <c r="D552" t="s">
-        <v>203</v>
-      </c>
-      <c r="E552" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E552" s="3"/>
       <c r="H552" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K552">
         <v>2017</v>
@@ -17448,22 +17365,20 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="4">
-        <v>3712</v>
+        <v>3102</v>
       </c>
       <c r="B553" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="C553" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D553" t="s">
+        <v>205</v>
+      </c>
+      <c r="E553" s="3"/>
+      <c r="H553" t="s">
         <v>206</v>
-      </c>
-      <c r="E553" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H553" t="s">
-        <v>207</v>
       </c>
       <c r="K553">
         <v>2017</v>
@@ -17471,22 +17386,20 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="4">
-        <v>4719</v>
+        <v>3115</v>
       </c>
       <c r="B554" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="C554" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D554" t="s">
-        <v>203</v>
-      </c>
-      <c r="E554" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E554" s="3"/>
       <c r="H554" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K554">
         <v>2017</v>
@@ -17494,22 +17407,20 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="4">
-        <v>3718</v>
+        <v>9128</v>
       </c>
       <c r="B555" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="C555" t="s">
         <v>1</v>
       </c>
       <c r="D555" t="s">
+        <v>205</v>
+      </c>
+      <c r="E555" s="3"/>
+      <c r="H555" t="s">
         <v>206</v>
-      </c>
-      <c r="E555" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H555" t="s">
-        <v>207</v>
       </c>
       <c r="K555">
         <v>2017</v>
@@ -17517,22 +17428,20 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="4">
-        <v>4708</v>
+        <v>3827</v>
       </c>
       <c r="B556" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C556" t="s">
         <v>1</v>
       </c>
       <c r="D556" t="s">
-        <v>203</v>
-      </c>
-      <c r="E556" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E556" s="3"/>
       <c r="H556" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K556">
         <v>2017</v>
@@ -17540,22 +17449,20 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="4">
-        <v>3703</v>
+        <v>3716</v>
       </c>
       <c r="B557" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="C557" t="s">
         <v>1</v>
       </c>
       <c r="D557" t="s">
-        <v>204</v>
-      </c>
-      <c r="E557" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E557" s="3"/>
       <c r="H557" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="K557">
         <v>2017</v>
@@ -17563,22 +17470,20 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="4">
-        <v>4714</v>
+        <v>3201</v>
       </c>
       <c r="B558" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="C558" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D558" t="s">
-        <v>203</v>
-      </c>
-      <c r="E558" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E558" s="3"/>
       <c r="H558" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K558">
         <v>2017</v>
@@ -17586,22 +17491,20 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="4">
-        <v>4726</v>
+        <v>2110</v>
       </c>
       <c r="B559" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="C559" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D559" t="s">
         <v>203</v>
       </c>
-      <c r="E559" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E559" s="3"/>
       <c r="H559" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="K559">
         <v>2017</v>
@@ -17609,22 +17512,20 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="4">
-        <v>9117</v>
+        <v>3104</v>
       </c>
       <c r="B560" t="s">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="C560" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D560" t="s">
         <v>203</v>
       </c>
-      <c r="E560" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E560" s="3"/>
       <c r="H560" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="K560">
         <v>2017</v>
@@ -17632,22 +17533,20 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="4">
-        <v>3725</v>
+        <v>4822</v>
       </c>
       <c r="B561" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="C561" t="s">
         <v>1</v>
       </c>
       <c r="D561" t="s">
-        <v>206</v>
-      </c>
-      <c r="E561" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E561" s="3"/>
       <c r="H561" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K561">
         <v>2017</v>
@@ -17655,22 +17554,20 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="4">
-        <v>3710</v>
+        <v>2848</v>
       </c>
       <c r="B562" t="s">
-        <v>240</v>
+        <v>439</v>
       </c>
       <c r="C562" t="s">
         <v>1</v>
       </c>
       <c r="D562" t="s">
-        <v>206</v>
-      </c>
-      <c r="E562" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E562" s="3"/>
       <c r="H562" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K562">
         <v>2017</v>
@@ -17678,22 +17575,20 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="4">
-        <v>3702</v>
+        <v>2815</v>
       </c>
       <c r="B563" t="s">
-        <v>241</v>
+        <v>126</v>
       </c>
       <c r="C563" t="s">
         <v>1</v>
       </c>
       <c r="D563" t="s">
-        <v>206</v>
-      </c>
-      <c r="E563" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E563" s="3"/>
       <c r="H563" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K563">
         <v>2017</v>
@@ -17701,22 +17596,20 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="4">
-        <v>3715</v>
+        <v>9119</v>
       </c>
       <c r="B564" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="C564" t="s">
         <v>1</v>
       </c>
       <c r="D564" t="s">
-        <v>206</v>
-      </c>
-      <c r="E564" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E564" s="3"/>
       <c r="H564" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K564">
         <v>2017</v>
@@ -17724,22 +17617,20 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="4">
-        <v>9904</v>
+        <v>3817</v>
       </c>
       <c r="B565" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="C565" t="s">
         <v>1</v>
       </c>
       <c r="D565" t="s">
-        <v>206</v>
-      </c>
-      <c r="E565" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E565" s="3"/>
       <c r="H565" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K565">
         <v>2017</v>
@@ -17747,22 +17638,20 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="4">
-        <v>1707</v>
+        <v>4810</v>
       </c>
       <c r="B566" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C566" t="s">
         <v>1</v>
       </c>
       <c r="D566" t="s">
-        <v>226</v>
-      </c>
-      <c r="E566" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E566" s="3"/>
       <c r="H566" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K566">
         <v>2017</v>
@@ -17770,20 +17659,18 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="4">
-        <v>2747</v>
+        <v>3803</v>
       </c>
       <c r="B567" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="C567" t="s">
         <v>1</v>
       </c>
       <c r="D567" t="s">
-        <v>204</v>
-      </c>
-      <c r="E567" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E567" s="3"/>
       <c r="H567" t="s">
         <v>40</v>
       </c>
@@ -17793,20 +17680,18 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="4">
-        <v>9129</v>
+        <v>3831</v>
       </c>
       <c r="B568" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="C568" t="s">
         <v>1</v>
       </c>
       <c r="D568" t="s">
-        <v>204</v>
-      </c>
-      <c r="E568" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E568" s="3"/>
       <c r="H568" t="s">
         <v>40</v>
       </c>
@@ -17816,20 +17701,18 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="4">
-        <v>2732</v>
+        <v>4837</v>
       </c>
       <c r="B569" t="s">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="C569" t="s">
         <v>1</v>
       </c>
       <c r="D569" t="s">
-        <v>204</v>
-      </c>
-      <c r="E569" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E569" s="3"/>
       <c r="H569" t="s">
         <v>40</v>
       </c>
@@ -17839,20 +17722,18 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="4">
-        <v>2731</v>
+        <v>2847</v>
       </c>
       <c r="B570" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C570" t="s">
         <v>1</v>
       </c>
       <c r="D570" t="s">
-        <v>204</v>
-      </c>
-      <c r="E570" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E570" s="3"/>
       <c r="H570" t="s">
         <v>40</v>
       </c>
@@ -17862,20 +17743,18 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="4">
-        <v>9121</v>
+        <v>2818</v>
       </c>
       <c r="B571" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="C571" t="s">
         <v>1</v>
       </c>
       <c r="D571" t="s">
-        <v>204</v>
-      </c>
-      <c r="E571" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E571" s="3"/>
       <c r="H571" t="s">
         <v>40</v>
       </c>
@@ -17885,20 +17764,18 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="4">
-        <v>2724</v>
+        <v>2830</v>
       </c>
       <c r="B572" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="C572" t="s">
         <v>1</v>
       </c>
       <c r="D572" t="s">
-        <v>204</v>
-      </c>
-      <c r="E572" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E572" s="3"/>
       <c r="H572" t="s">
         <v>40</v>
       </c>
@@ -17908,20 +17785,18 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="4">
-        <v>2728</v>
+        <v>4818</v>
       </c>
       <c r="B573" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C573" t="s">
         <v>1</v>
       </c>
       <c r="D573" t="s">
-        <v>204</v>
-      </c>
-      <c r="E573" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E573" s="3"/>
       <c r="H573" t="s">
         <v>40</v>
       </c>
@@ -17931,20 +17806,18 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="4">
-        <v>3720</v>
+        <v>2829</v>
       </c>
       <c r="B574" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C574" t="s">
         <v>1</v>
       </c>
       <c r="D574" t="s">
-        <v>204</v>
-      </c>
-      <c r="E574" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E574" s="3"/>
       <c r="H574" t="s">
         <v>40</v>
       </c>
@@ -17954,20 +17827,18 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="4">
-        <v>2743</v>
+        <v>2825</v>
       </c>
       <c r="B575" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C575" t="s">
         <v>1</v>
       </c>
       <c r="D575" t="s">
-        <v>204</v>
-      </c>
-      <c r="E575" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E575" s="3"/>
       <c r="H575" t="s">
         <v>40</v>
       </c>
@@ -17977,20 +17848,18 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="4">
-        <v>2713</v>
+        <v>2833</v>
       </c>
       <c r="B576" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C576" t="s">
         <v>1</v>
       </c>
       <c r="D576" t="s">
-        <v>204</v>
-      </c>
-      <c r="E576" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E576" s="3"/>
       <c r="H576" t="s">
         <v>40</v>
       </c>
@@ -18000,20 +17869,18 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="4">
-        <v>2710</v>
+        <v>2114</v>
       </c>
       <c r="B577" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C577" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D577" t="s">
-        <v>204</v>
-      </c>
-      <c r="E577" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E577" s="3"/>
       <c r="H577" t="s">
         <v>40</v>
       </c>
@@ -18023,20 +17890,18 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="4">
-        <v>3713</v>
+        <v>4108</v>
       </c>
       <c r="B578" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C578" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D578" t="s">
-        <v>204</v>
-      </c>
-      <c r="E578" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E578" s="3"/>
       <c r="H578" t="s">
         <v>40</v>
       </c>
@@ -18046,20 +17911,18 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="4">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="B579" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C579" t="s">
         <v>1</v>
       </c>
       <c r="D579" t="s">
-        <v>204</v>
-      </c>
-      <c r="E579" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E579" s="3"/>
       <c r="H579" t="s">
         <v>40</v>
       </c>
@@ -18069,20 +17932,18 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="4">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="B580" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="C580" t="s">
         <v>1</v>
       </c>
       <c r="D580" t="s">
-        <v>204</v>
-      </c>
-      <c r="E580" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E580" s="3"/>
       <c r="H580" t="s">
         <v>40</v>
       </c>
@@ -18092,20 +17953,18 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="4">
-        <v>3301</v>
+        <v>9129</v>
       </c>
       <c r="B581" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C581" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D581" t="s">
-        <v>204</v>
-      </c>
-      <c r="E581" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E581" s="3"/>
       <c r="H581" t="s">
         <v>40</v>
       </c>
@@ -18115,20 +17974,18 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="4">
-        <v>2744</v>
+        <v>2732</v>
       </c>
       <c r="B582" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C582" t="s">
         <v>1</v>
       </c>
       <c r="D582" t="s">
-        <v>204</v>
-      </c>
-      <c r="E582" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E582" s="3"/>
       <c r="H582" t="s">
         <v>40</v>
       </c>
@@ -18138,20 +17995,18 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="4">
-        <v>4709</v>
+        <v>2731</v>
       </c>
       <c r="B583" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="C583" t="s">
         <v>1</v>
       </c>
       <c r="D583" t="s">
-        <v>204</v>
-      </c>
-      <c r="E583" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E583" s="3"/>
       <c r="H583" t="s">
         <v>40</v>
       </c>
@@ -18161,20 +18016,18 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="4">
-        <v>3719</v>
+        <v>9121</v>
       </c>
       <c r="B584" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C584" t="s">
         <v>1</v>
       </c>
       <c r="D584" t="s">
-        <v>204</v>
-      </c>
-      <c r="E584" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E584" s="3"/>
       <c r="H584" t="s">
         <v>40</v>
       </c>
@@ -18184,20 +18037,18 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="4">
-        <v>3812</v>
+        <v>2724</v>
       </c>
       <c r="B585" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="C585" t="s">
         <v>1</v>
       </c>
       <c r="D585" t="s">
-        <v>204</v>
-      </c>
-      <c r="E585" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E585" s="3"/>
       <c r="H585" t="s">
         <v>40</v>
       </c>
@@ -18207,20 +18058,18 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="4">
-        <v>3107</v>
+        <v>2728</v>
       </c>
       <c r="B586" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="C586" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D586" t="s">
-        <v>204</v>
-      </c>
-      <c r="E586" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E586" s="3"/>
       <c r="H586" t="s">
         <v>40</v>
       </c>
@@ -18230,22 +18079,20 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="4">
-        <v>4101</v>
+        <v>3720</v>
       </c>
       <c r="B587" t="s">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="C587" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D587" t="s">
         <v>203</v>
       </c>
-      <c r="E587" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E587" s="3"/>
       <c r="H587" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="K587">
         <v>2017</v>
@@ -18253,22 +18100,20 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="4">
-        <v>4111</v>
+        <v>2743</v>
       </c>
       <c r="B588" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="C588" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D588" t="s">
         <v>203</v>
       </c>
-      <c r="E588" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E588" s="3"/>
       <c r="H588" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="K588">
         <v>2017</v>
@@ -18276,22 +18121,20 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="4">
-        <v>4102</v>
+        <v>2713</v>
       </c>
       <c r="B589" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="C589" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D589" t="s">
         <v>203</v>
       </c>
-      <c r="E589" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E589" s="3"/>
       <c r="H589" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="K589">
         <v>2017</v>
@@ -18299,10 +18142,10 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="4">
-        <v>3809</v>
+        <v>2710</v>
       </c>
       <c r="B590" t="s">
-        <v>248</v>
+        <v>129</v>
       </c>
       <c r="C590" t="s">
         <v>1</v>
@@ -18310,11 +18153,9 @@
       <c r="D590" t="s">
         <v>203</v>
       </c>
-      <c r="E590" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E590" s="3"/>
       <c r="H590" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K590">
         <v>2017</v>
@@ -18322,22 +18163,20 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="4">
-        <v>3102</v>
+        <v>3713</v>
       </c>
       <c r="B591" t="s">
-        <v>249</v>
+        <v>147</v>
       </c>
       <c r="C591" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D591" t="s">
-        <v>206</v>
-      </c>
-      <c r="E591" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E591" s="3"/>
       <c r="H591" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K591">
         <v>2017</v>
@@ -18345,22 +18184,20 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="4">
-        <v>4109</v>
+        <v>3705</v>
       </c>
       <c r="B592" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="C592" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D592" t="s">
         <v>203</v>
       </c>
-      <c r="E592" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E592" s="3"/>
       <c r="H592" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="K592">
         <v>2017</v>
@@ -18368,20 +18205,18 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="4">
-        <v>3117</v>
+        <v>2749</v>
       </c>
       <c r="B593" t="s">
-        <v>251</v>
+        <v>440</v>
       </c>
       <c r="C593" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D593" t="s">
-        <v>204</v>
-      </c>
-      <c r="E593" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E593" s="3"/>
       <c r="H593" t="s">
         <v>40</v>
       </c>
@@ -18391,22 +18226,20 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="4">
-        <v>3115</v>
+        <v>3301</v>
       </c>
       <c r="B594" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="C594" t="s">
         <v>2</v>
       </c>
       <c r="D594" t="s">
-        <v>206</v>
-      </c>
-      <c r="E594" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E594" s="3"/>
       <c r="H594" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K594">
         <v>2017</v>
@@ -18414,20 +18247,18 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="4">
-        <v>3302</v>
+        <v>2744</v>
       </c>
       <c r="B595" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="C595" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D595" t="s">
-        <v>204</v>
-      </c>
-      <c r="E595" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E595" s="3"/>
       <c r="H595" t="s">
         <v>40</v>
       </c>
@@ -18437,22 +18268,20 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="4">
-        <v>4110</v>
+        <v>4709</v>
       </c>
       <c r="B596" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="C596" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D596" t="s">
         <v>203</v>
       </c>
-      <c r="E596" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E596" s="3"/>
       <c r="H596" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="K596">
         <v>2017</v>
@@ -18460,20 +18289,18 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="4">
-        <v>2207</v>
+        <v>3117</v>
       </c>
       <c r="B597" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="C597" t="s">
         <v>2</v>
       </c>
       <c r="D597" t="s">
-        <v>204</v>
-      </c>
-      <c r="E597" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E597" s="3"/>
       <c r="H597" t="s">
         <v>40</v>
       </c>
@@ -18483,22 +18310,20 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="4">
-        <v>9128</v>
+        <v>3719</v>
       </c>
       <c r="B598" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="C598" t="s">
         <v>1</v>
       </c>
       <c r="D598" t="s">
-        <v>206</v>
-      </c>
-      <c r="E598" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E598" s="3"/>
       <c r="H598" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K598">
         <v>2017</v>
@@ -18506,20 +18331,18 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="4">
-        <v>2209</v>
+        <v>3812</v>
       </c>
       <c r="B599" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="C599" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D599" t="s">
-        <v>204</v>
-      </c>
-      <c r="E599" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E599" s="3"/>
       <c r="H599" t="s">
         <v>40</v>
       </c>
@@ -18529,20 +18352,18 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="4">
-        <v>2725</v>
+        <v>3107</v>
       </c>
       <c r="B600" t="s">
-        <v>175</v>
+        <v>441</v>
       </c>
       <c r="C600" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D600" t="s">
-        <v>204</v>
-      </c>
-      <c r="E600" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E600" s="3"/>
       <c r="H600" t="s">
         <v>40</v>
       </c>
@@ -18552,22 +18373,20 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="4">
-        <v>4727</v>
+        <v>3302</v>
       </c>
       <c r="B601" t="s">
-        <v>255</v>
+        <v>122</v>
       </c>
       <c r="C601" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D601" t="s">
         <v>203</v>
       </c>
-      <c r="E601" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E601" s="3"/>
       <c r="H601" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="K601">
         <v>2017</v>
@@ -18575,22 +18394,20 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="4">
-        <v>3827</v>
+        <v>2207</v>
       </c>
       <c r="B602" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="C602" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D602" t="s">
-        <v>206</v>
-      </c>
-      <c r="E602" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E602" s="3"/>
       <c r="H602" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K602">
         <v>2017</v>
@@ -18598,22 +18415,20 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="4">
-        <v>3716</v>
+        <v>2209</v>
       </c>
       <c r="B603" t="s">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="C603" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D603" t="s">
-        <v>206</v>
-      </c>
-      <c r="E603" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E603" s="3"/>
       <c r="H603" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K603">
         <v>2017</v>
@@ -18621,20 +18436,18 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="4">
-        <v>3204</v>
+        <v>2725</v>
       </c>
       <c r="B604" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C604" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D604" t="s">
-        <v>204</v>
-      </c>
-      <c r="E604" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E604" s="3"/>
       <c r="H604" t="s">
         <v>40</v>
       </c>
@@ -18644,22 +18457,20 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="4">
-        <v>3201</v>
+        <v>3204</v>
       </c>
       <c r="B605" t="s">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="C605" t="s">
         <v>2</v>
       </c>
       <c r="D605" t="s">
-        <v>206</v>
-      </c>
-      <c r="E605" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E605" s="3"/>
       <c r="H605" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="K605">
         <v>2017</v>
@@ -18676,11 +18487,9 @@
         <v>1</v>
       </c>
       <c r="D606" t="s">
-        <v>204</v>
-      </c>
-      <c r="E606" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E606" s="3"/>
       <c r="H606" t="s">
         <v>40</v>
       </c>
@@ -18690,22 +18499,20 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="4">
-        <v>1826</v>
+        <v>2834</v>
       </c>
       <c r="B607" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="C607" t="s">
         <v>1</v>
       </c>
       <c r="D607" t="s">
-        <v>226</v>
-      </c>
-      <c r="E607" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E607" s="3"/>
       <c r="H607" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K607">
         <v>2017</v>
@@ -18713,20 +18520,18 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="4">
-        <v>1823</v>
+        <v>2810</v>
       </c>
       <c r="B608" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C608" t="s">
         <v>1</v>
       </c>
       <c r="D608" t="s">
-        <v>226</v>
-      </c>
-      <c r="E608" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E608" s="3"/>
       <c r="H608" t="s">
         <v>0</v>
       </c>
@@ -18736,20 +18541,18 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="4">
-        <v>1825</v>
+        <v>1707</v>
       </c>
       <c r="B609" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C609" t="s">
         <v>1</v>
       </c>
       <c r="D609" t="s">
-        <v>226</v>
-      </c>
-      <c r="E609" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E609" s="3"/>
       <c r="H609" t="s">
         <v>0</v>
       </c>
@@ -18759,20 +18562,18 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="4">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="B610" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C610" t="s">
         <v>1</v>
       </c>
       <c r="D610" t="s">
-        <v>226</v>
-      </c>
-      <c r="E610" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E610" s="3"/>
       <c r="H610" t="s">
         <v>0</v>
       </c>
@@ -18782,20 +18583,18 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="4">
-        <v>1804</v>
+        <v>1823</v>
       </c>
       <c r="B611" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="C611" t="s">
         <v>1</v>
       </c>
       <c r="D611" t="s">
-        <v>226</v>
-      </c>
-      <c r="E611" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E611" s="3"/>
       <c r="H611" t="s">
         <v>0</v>
       </c>
@@ -18805,20 +18604,18 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="4">
-        <v>2711</v>
+        <v>1825</v>
       </c>
       <c r="B612" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C612" t="s">
         <v>1</v>
       </c>
       <c r="D612" t="s">
-        <v>226</v>
-      </c>
-      <c r="E612" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E612" s="3"/>
       <c r="H612" t="s">
         <v>0</v>
       </c>
@@ -18828,20 +18625,18 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="4">
-        <v>2708</v>
+        <v>1830</v>
       </c>
       <c r="B613" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C613" t="s">
         <v>1</v>
       </c>
       <c r="D613" t="s">
-        <v>226</v>
-      </c>
-      <c r="E613" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E613" s="3"/>
       <c r="H613" t="s">
         <v>0</v>
       </c>
@@ -18851,20 +18646,18 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="4">
-        <v>1818</v>
+        <v>1804</v>
       </c>
       <c r="B614" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="C614" t="s">
         <v>1</v>
       </c>
       <c r="D614" t="s">
-        <v>226</v>
-      </c>
-      <c r="E614" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E614" s="3"/>
       <c r="H614" t="s">
         <v>0</v>
       </c>
@@ -18874,20 +18667,18 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="4">
-        <v>1201</v>
+        <v>2711</v>
       </c>
       <c r="B615" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C615" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D615" t="s">
-        <v>226</v>
-      </c>
-      <c r="E615" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E615" s="3"/>
       <c r="H615" t="s">
         <v>0</v>
       </c>
@@ -18897,20 +18688,18 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="4">
-        <v>1112</v>
+        <v>2708</v>
       </c>
       <c r="B616" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C616" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D616" t="s">
-        <v>226</v>
-      </c>
-      <c r="E616" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E616" s="3"/>
       <c r="H616" t="s">
         <v>0</v>
       </c>
@@ -18920,20 +18709,18 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="4">
-        <v>1205</v>
+        <v>1818</v>
       </c>
       <c r="B617" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C617" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D617" t="s">
-        <v>226</v>
-      </c>
-      <c r="E617" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E617" s="3"/>
       <c r="H617" t="s">
         <v>0</v>
       </c>
@@ -18943,20 +18730,18 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="4">
-        <v>1835</v>
+        <v>1201</v>
       </c>
       <c r="B618" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="C618" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D618" t="s">
-        <v>226</v>
-      </c>
-      <c r="E618" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E618" s="3"/>
       <c r="H618" t="s">
         <v>0</v>
       </c>
@@ -18966,20 +18751,18 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="4">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B619" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="C619" t="s">
         <v>2</v>
       </c>
       <c r="D619" t="s">
-        <v>226</v>
-      </c>
-      <c r="E619" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E619" s="3"/>
       <c r="H619" t="s">
         <v>0</v>
       </c>
@@ -18989,20 +18772,18 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="4">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="B620" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C620" t="s">
         <v>2</v>
       </c>
       <c r="D620" t="s">
-        <v>226</v>
-      </c>
-      <c r="E620" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E620" s="3"/>
       <c r="H620" t="s">
         <v>0</v>
       </c>
@@ -19012,20 +18793,18 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="4">
-        <v>1831</v>
+        <v>1835</v>
       </c>
       <c r="B621" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C621" t="s">
         <v>1</v>
       </c>
       <c r="D621" t="s">
-        <v>226</v>
-      </c>
-      <c r="E621" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E621" s="3"/>
       <c r="H621" t="s">
         <v>0</v>
       </c>
@@ -19035,20 +18814,18 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="4">
-        <v>1218</v>
+        <v>1113</v>
       </c>
       <c r="B622" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C622" t="s">
         <v>2</v>
       </c>
       <c r="D622" t="s">
-        <v>226</v>
-      </c>
-      <c r="E622" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E622" s="3"/>
       <c r="H622" t="s">
         <v>0</v>
       </c>
@@ -19058,20 +18835,18 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="4">
-        <v>1119</v>
+        <v>1214</v>
       </c>
       <c r="B623" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C623" t="s">
         <v>2</v>
       </c>
       <c r="D623" t="s">
-        <v>226</v>
-      </c>
-      <c r="E623" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E623" s="3"/>
       <c r="H623" t="s">
         <v>0</v>
       </c>
@@ -19081,20 +18856,18 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="4">
-        <v>1722</v>
+        <v>1831</v>
       </c>
       <c r="B624" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C624" t="s">
         <v>1</v>
       </c>
       <c r="D624" t="s">
-        <v>226</v>
-      </c>
-      <c r="E624" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E624" s="3"/>
       <c r="H624" t="s">
         <v>0</v>
       </c>
@@ -19104,20 +18877,18 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="4">
-        <v>1206</v>
+        <v>1218</v>
       </c>
       <c r="B625" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C625" t="s">
         <v>2</v>
       </c>
       <c r="D625" t="s">
-        <v>226</v>
-      </c>
-      <c r="E625" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E625" s="3"/>
       <c r="H625" t="s">
         <v>0</v>
       </c>
@@ -19127,20 +18898,18 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="4">
-        <v>1212</v>
+        <v>1119</v>
       </c>
       <c r="B626" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C626" t="s">
         <v>2</v>
       </c>
       <c r="D626" t="s">
-        <v>226</v>
-      </c>
-      <c r="E626" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E626" s="3"/>
       <c r="H626" t="s">
         <v>0</v>
       </c>
@@ -19150,20 +18919,18 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="4">
-        <v>1718</v>
+        <v>1722</v>
       </c>
       <c r="B627" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C627" t="s">
         <v>1</v>
       </c>
       <c r="D627" t="s">
-        <v>226</v>
-      </c>
-      <c r="E627" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E627" s="3"/>
       <c r="H627" t="s">
         <v>0</v>
       </c>
@@ -19173,20 +18940,18 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="4">
-        <v>2832</v>
+        <v>1206</v>
       </c>
       <c r="B628" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C628" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D628" t="s">
-        <v>226</v>
-      </c>
-      <c r="E628" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E628" s="3"/>
       <c r="H628" t="s">
         <v>0</v>
       </c>
@@ -19196,20 +18961,18 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="4">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="B629" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C629" t="s">
         <v>2</v>
       </c>
       <c r="D629" t="s">
-        <v>226</v>
-      </c>
-      <c r="E629" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E629" s="3"/>
       <c r="H629" t="s">
         <v>0</v>
       </c>
@@ -19219,20 +18982,18 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="4">
-        <v>1202</v>
+        <v>1718</v>
       </c>
       <c r="B630" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="C630" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D630" t="s">
-        <v>226</v>
-      </c>
-      <c r="E630" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E630" s="3"/>
       <c r="H630" t="s">
         <v>0</v>
       </c>
@@ -19242,20 +19003,18 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="4">
-        <v>1110</v>
+        <v>2832</v>
       </c>
       <c r="B631" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="C631" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D631" t="s">
-        <v>226</v>
-      </c>
-      <c r="E631" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E631" s="3"/>
       <c r="H631" t="s">
         <v>0</v>
       </c>
@@ -19265,20 +19024,18 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="4">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="B632" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C632" t="s">
         <v>2</v>
       </c>
       <c r="D632" t="s">
-        <v>226</v>
-      </c>
-      <c r="E632" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E632" s="3"/>
       <c r="H632" t="s">
         <v>0</v>
       </c>
@@ -19288,20 +19045,18 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="4">
-        <v>1122</v>
+        <v>1202</v>
       </c>
       <c r="B633" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C633" t="s">
         <v>2</v>
       </c>
       <c r="D633" t="s">
-        <v>226</v>
-      </c>
-      <c r="E633" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E633" s="3"/>
       <c r="H633" t="s">
         <v>0</v>
       </c>
@@ -19311,20 +19066,18 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="4">
-        <v>1208</v>
+        <v>1110</v>
       </c>
       <c r="B634" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C634" t="s">
         <v>2</v>
       </c>
       <c r="D634" t="s">
-        <v>226</v>
-      </c>
-      <c r="E634" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E634" s="3"/>
       <c r="H634" t="s">
         <v>0</v>
       </c>
@@ -19334,20 +19087,18 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="4">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="B635" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="C635" t="s">
         <v>2</v>
       </c>
       <c r="D635" t="s">
-        <v>226</v>
-      </c>
-      <c r="E635" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E635" s="3"/>
       <c r="H635" t="s">
         <v>0</v>
       </c>
@@ -19357,20 +19108,18 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="4">
-        <v>1203</v>
+        <v>1122</v>
       </c>
       <c r="B636" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C636" t="s">
         <v>2</v>
       </c>
       <c r="D636" t="s">
-        <v>226</v>
-      </c>
-      <c r="E636" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E636" s="3"/>
       <c r="H636" t="s">
         <v>0</v>
       </c>
@@ -19380,20 +19129,18 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="4">
-        <v>1301</v>
+        <v>1208</v>
       </c>
       <c r="B637" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C637" t="s">
         <v>2</v>
       </c>
       <c r="D637" t="s">
-        <v>226</v>
-      </c>
-      <c r="E637" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E637" s="3"/>
       <c r="H637" t="s">
         <v>0</v>
       </c>
@@ -19403,20 +19150,18 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="4">
-        <v>5802</v>
+        <v>1207</v>
       </c>
       <c r="B638" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="C638" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D638" t="s">
-        <v>226</v>
-      </c>
-      <c r="E638" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E638" s="3"/>
       <c r="H638" t="s">
         <v>0</v>
       </c>
@@ -19426,20 +19171,18 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="4">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B639" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="C639" t="s">
         <v>2</v>
       </c>
       <c r="D639" t="s">
-        <v>226</v>
-      </c>
-      <c r="E639" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E639" s="3"/>
       <c r="H639" t="s">
         <v>0</v>
       </c>
@@ -19449,20 +19192,18 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="4">
-        <v>1204</v>
+        <v>1301</v>
       </c>
       <c r="B640" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C640" t="s">
         <v>2</v>
       </c>
       <c r="D640" t="s">
-        <v>226</v>
-      </c>
-      <c r="E640" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E640" s="3"/>
       <c r="H640" t="s">
         <v>0</v>
       </c>
@@ -19472,20 +19213,18 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="4">
-        <v>1801</v>
+        <v>5802</v>
       </c>
       <c r="B641" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C641" t="s">
         <v>1</v>
       </c>
       <c r="D641" t="s">
-        <v>226</v>
-      </c>
-      <c r="E641" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E641" s="3"/>
       <c r="H641" t="s">
         <v>0</v>
       </c>
@@ -19495,20 +19234,18 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="4">
-        <v>1735</v>
+        <v>1209</v>
       </c>
       <c r="B642" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C642" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D642" t="s">
-        <v>226</v>
-      </c>
-      <c r="E642" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E642" s="3"/>
       <c r="H642" t="s">
         <v>0</v>
       </c>
@@ -19518,20 +19255,18 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="4">
-        <v>1720</v>
+        <v>1204</v>
       </c>
       <c r="B643" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C643" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D643" t="s">
-        <v>226</v>
-      </c>
-      <c r="E643" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E643" s="3"/>
       <c r="H643" t="s">
         <v>0</v>
       </c>
@@ -19541,20 +19276,18 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="4">
-        <v>1117</v>
+        <v>1801</v>
       </c>
       <c r="B644" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C644" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D644" t="s">
-        <v>226</v>
-      </c>
-      <c r="E644" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E644" s="3"/>
       <c r="H644" t="s">
         <v>0</v>
       </c>
@@ -19564,20 +19297,18 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="4">
-        <v>2102</v>
+        <v>1735</v>
       </c>
       <c r="B645" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C645" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D645" t="s">
-        <v>226</v>
-      </c>
-      <c r="E645" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E645" s="3"/>
       <c r="H645" t="s">
         <v>0</v>
       </c>
@@ -19587,20 +19318,18 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="4">
-        <v>1106</v>
+        <v>1720</v>
       </c>
       <c r="B646" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C646" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D646" t="s">
-        <v>226</v>
-      </c>
-      <c r="E646" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E646" s="3"/>
       <c r="H646" t="s">
         <v>0</v>
       </c>
@@ -19610,20 +19339,18 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="4">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B647" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="C647" t="s">
         <v>2</v>
       </c>
       <c r="D647" t="s">
-        <v>226</v>
-      </c>
-      <c r="E647" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E647" s="3"/>
       <c r="H647" t="s">
         <v>0</v>
       </c>
@@ -19633,20 +19360,18 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="4">
-        <v>1805</v>
+        <v>2102</v>
       </c>
       <c r="B648" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C648" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D648" t="s">
-        <v>226</v>
-      </c>
-      <c r="E648" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E648" s="3"/>
       <c r="H648" t="s">
         <v>0</v>
       </c>
@@ -19656,20 +19381,18 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="4">
-        <v>1704</v>
+        <v>1106</v>
       </c>
       <c r="B649" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C649" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D649" t="s">
-        <v>226</v>
-      </c>
-      <c r="E649" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E649" s="3"/>
       <c r="H649" t="s">
         <v>0</v>
       </c>
@@ -19679,20 +19402,18 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="4">
-        <v>2805</v>
+        <v>1120</v>
       </c>
       <c r="B650" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C650" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D650" t="s">
-        <v>226</v>
-      </c>
-      <c r="E650" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E650" s="3"/>
       <c r="H650" t="s">
         <v>0</v>
       </c>
@@ -19702,20 +19423,18 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="4">
-        <v>1114</v>
+        <v>1805</v>
       </c>
       <c r="B651" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C651" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D651" t="s">
-        <v>226</v>
-      </c>
-      <c r="E651" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E651" s="3"/>
       <c r="H651" t="s">
         <v>0</v>
       </c>
@@ -19725,20 +19444,18 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="4">
-        <v>1832</v>
+        <v>1704</v>
       </c>
       <c r="B652" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C652" t="s">
         <v>1</v>
       </c>
       <c r="D652" t="s">
-        <v>226</v>
-      </c>
-      <c r="E652" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E652" s="3"/>
       <c r="H652" t="s">
         <v>0</v>
       </c>
@@ -19748,20 +19465,18 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="4">
-        <v>1111</v>
+        <v>2805</v>
       </c>
       <c r="B653" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C653" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D653" t="s">
-        <v>226</v>
-      </c>
-      <c r="E653" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E653" s="3"/>
       <c r="H653" t="s">
         <v>0</v>
       </c>
@@ -19771,20 +19486,18 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="4">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="B654" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C654" t="s">
         <v>2</v>
       </c>
       <c r="D654" t="s">
-        <v>226</v>
-      </c>
-      <c r="E654" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E654" s="3"/>
       <c r="H654" t="s">
         <v>0</v>
       </c>
@@ -19794,22 +19507,20 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="4">
-        <v>2834</v>
+        <v>1832</v>
       </c>
       <c r="B655" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="C655" t="s">
         <v>1</v>
       </c>
       <c r="D655" t="s">
-        <v>204</v>
-      </c>
-      <c r="E655" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E655" s="3"/>
       <c r="H655" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K655">
         <v>2017</v>
@@ -19817,22 +19528,20 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="3">
-        <v>2905</v>
+        <v>1111</v>
       </c>
       <c r="B656" t="s">
-        <v>259</v>
+        <v>31</v>
       </c>
       <c r="C656" t="s">
         <v>2</v>
       </c>
       <c r="D656" t="s">
-        <v>203</v>
-      </c>
-      <c r="E656" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E656" s="3"/>
       <c r="H656" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K656">
         <v>2017</v>
@@ -19840,164 +19549,53 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="3">
-        <v>2901</v>
+        <v>1121</v>
       </c>
       <c r="B657" t="s">
-        <v>260</v>
+        <v>73</v>
       </c>
       <c r="C657" t="s">
         <v>2</v>
       </c>
       <c r="D657" t="s">
-        <v>203</v>
-      </c>
-      <c r="E657" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E657" s="3"/>
       <c r="H657" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K657">
         <v>2017</v>
       </c>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A658" s="3">
-        <v>3902</v>
-      </c>
-      <c r="B658" t="s">
-        <v>261</v>
-      </c>
-      <c r="C658" t="s">
-        <v>2</v>
-      </c>
-      <c r="D658" t="s">
-        <v>206</v>
-      </c>
-      <c r="E658" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H658" t="s">
-        <v>207</v>
-      </c>
-      <c r="K658">
-        <v>2017</v>
-      </c>
+      <c r="A658" s="3"/>
+      <c r="E658" s="3"/>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A659" s="3">
-        <v>2903</v>
-      </c>
-      <c r="B659" t="s">
-        <v>262</v>
-      </c>
-      <c r="C659" t="s">
-        <v>2</v>
-      </c>
-      <c r="D659" t="s">
-        <v>206</v>
-      </c>
-      <c r="E659" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H659" t="s">
-        <v>40</v>
-      </c>
-      <c r="K659">
-        <v>2017</v>
-      </c>
+      <c r="A659" s="3"/>
+      <c r="E659" s="3"/>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A660" s="3">
-        <v>3901</v>
-      </c>
-      <c r="B660" t="s">
-        <v>263</v>
-      </c>
-      <c r="C660" t="s">
-        <v>2</v>
-      </c>
-      <c r="D660" t="s">
-        <v>206</v>
-      </c>
-      <c r="E660" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H660" t="s">
-        <v>207</v>
-      </c>
-      <c r="K660">
-        <v>2017</v>
-      </c>
+      <c r="A660" s="3"/>
+      <c r="E660" s="3"/>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A661" s="3">
-        <v>9102</v>
-      </c>
-      <c r="B661" t="s">
-        <v>264</v>
-      </c>
-      <c r="C661" t="s">
-        <v>2</v>
-      </c>
-      <c r="D661" t="s">
-        <v>206</v>
-      </c>
-      <c r="E661" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H661" t="s">
-        <v>207</v>
-      </c>
-      <c r="K661">
-        <v>2017</v>
-      </c>
+      <c r="A661" s="3"/>
+      <c r="E661" s="3"/>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A662" s="3">
-        <v>3114</v>
-      </c>
-      <c r="B662" t="s">
-        <v>265</v>
-      </c>
-      <c r="C662" t="s">
-        <v>2</v>
-      </c>
-      <c r="D662" t="s">
-        <v>206</v>
-      </c>
-      <c r="E662" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H662" t="s">
-        <v>207</v>
-      </c>
-      <c r="K662">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A663" s="4">
-        <v>2106</v>
-      </c>
-      <c r="B663" t="s">
-        <v>191</v>
-      </c>
-      <c r="C663" t="s">
-        <v>2</v>
-      </c>
-      <c r="D663" t="s">
-        <v>204</v>
-      </c>
-      <c r="E663" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H663" t="s">
-        <v>40</v>
-      </c>
-      <c r="K663">
-        <v>2017</v>
-      </c>
+      <c r="A662" s="3"/>
+      <c r="E662" s="3"/>
+    </row>
+    <row r="663" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A663" s="4"/>
+      <c r="E663" s="3"/>
+    </row>
+    <row r="664" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A664" s="6"/>
+      <c r="B664" s="6"/>
+      <c r="C664" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
